--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_100ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3602,28 +3602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>9730.949691132468</v>
+        <v>10269.18271035636</v>
       </c>
       <c r="AB2" t="n">
-        <v>13314.31466661016</v>
+        <v>14050.74882867729</v>
       </c>
       <c r="AC2" t="n">
-        <v>12043.61516158638</v>
+        <v>12709.76508081764</v>
       </c>
       <c r="AD2" t="n">
-        <v>9730949.691132467</v>
+        <v>10269182.71035636</v>
       </c>
       <c r="AE2" t="n">
-        <v>13314314.66661016</v>
+        <v>14050748.82867729</v>
       </c>
       <c r="AF2" t="n">
         <v>1.451742247721796e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>109</v>
+        <v>108.1208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>12043615.16158638</v>
+        <v>12709765.08081764</v>
       </c>
     </row>
     <row r="3">
@@ -3708,28 +3708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3373.093810875042</v>
+        <v>3666.681118147932</v>
       </c>
       <c r="AB3" t="n">
-        <v>4615.215762435922</v>
+        <v>5016.91486840459</v>
       </c>
       <c r="AC3" t="n">
-        <v>4174.746047564869</v>
+        <v>4538.107554648109</v>
       </c>
       <c r="AD3" t="n">
-        <v>3373093.810875042</v>
+        <v>3666681.118147932</v>
       </c>
       <c r="AE3" t="n">
-        <v>4615215.762435921</v>
+        <v>5016914.868404591</v>
       </c>
       <c r="AF3" t="n">
         <v>2.729456234299983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.50416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>4174746.047564868</v>
+        <v>4538107.554648109</v>
       </c>
     </row>
     <row r="4">
@@ -3814,28 +3814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2605.663973507495</v>
+        <v>2850.275520039719</v>
       </c>
       <c r="AB4" t="n">
-        <v>3565.184402334639</v>
+        <v>3899.872711799854</v>
       </c>
       <c r="AC4" t="n">
-        <v>3224.928206743422</v>
+        <v>3527.674333691257</v>
       </c>
       <c r="AD4" t="n">
-        <v>2605663.973507495</v>
+        <v>2850275.520039719</v>
       </c>
       <c r="AE4" t="n">
-        <v>3565184.402334639</v>
+        <v>3899872.711799854</v>
       </c>
       <c r="AF4" t="n">
         <v>3.201441972856135e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.02083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>3224928.206743422</v>
+        <v>3527674.333691257</v>
       </c>
     </row>
     <row r="5">
@@ -3920,28 +3920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2287.900282863347</v>
+        <v>2512.934786854874</v>
       </c>
       <c r="AB5" t="n">
-        <v>3130.406102050653</v>
+        <v>3438.308238233523</v>
       </c>
       <c r="AC5" t="n">
-        <v>2831.644537223378</v>
+        <v>3110.160925672306</v>
       </c>
       <c r="AD5" t="n">
-        <v>2287900.282863346</v>
+        <v>2512934.786854874</v>
       </c>
       <c r="AE5" t="n">
-        <v>3130406.102050653</v>
+        <v>3438308.238233523</v>
       </c>
       <c r="AF5" t="n">
         <v>3.451183828133652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>46</v>
+        <v>45.47916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2831644.537223378</v>
+        <v>3110160.925672306</v>
       </c>
     </row>
     <row r="6">
@@ -4026,28 +4026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2109.990571859566</v>
+        <v>2325.338039807233</v>
       </c>
       <c r="AB6" t="n">
-        <v>2886.982186632593</v>
+        <v>3181.63009273855</v>
       </c>
       <c r="AC6" t="n">
-        <v>2611.452658645325</v>
+        <v>2877.979782133343</v>
       </c>
       <c r="AD6" t="n">
-        <v>2109990.571859566</v>
+        <v>2325338.039807233</v>
       </c>
       <c r="AE6" t="n">
-        <v>2886982.186632593</v>
+        <v>3181630.09273855</v>
       </c>
       <c r="AF6" t="n">
         <v>3.606754546428697e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.51666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2611452.658645325</v>
+        <v>2877979.782133343</v>
       </c>
     </row>
     <row r="7">
@@ -4132,28 +4132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1982.916562316515</v>
+        <v>2188.408189186126</v>
       </c>
       <c r="AB7" t="n">
-        <v>2713.113920666149</v>
+        <v>2994.276630199907</v>
       </c>
       <c r="AC7" t="n">
-        <v>2454.178135957075</v>
+        <v>2708.507071107272</v>
       </c>
       <c r="AD7" t="n">
-        <v>1982916.562316515</v>
+        <v>2188408.189186126</v>
       </c>
       <c r="AE7" t="n">
-        <v>2713113.920666149</v>
+        <v>2994276.630199907</v>
       </c>
       <c r="AF7" t="n">
         <v>3.717123118972154e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.225</v>
       </c>
       <c r="AH7" t="n">
-        <v>2454178.135957075</v>
+        <v>2708507.071107272</v>
       </c>
     </row>
     <row r="8">
@@ -4238,28 +4238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1881.616243987439</v>
+        <v>2087.073705438269</v>
       </c>
       <c r="AB8" t="n">
-        <v>2574.510356073673</v>
+        <v>2855.626318974183</v>
       </c>
       <c r="AC8" t="n">
-        <v>2328.80270103798</v>
+        <v>2583.089350987997</v>
       </c>
       <c r="AD8" t="n">
-        <v>1881616.243987439</v>
+        <v>2087073.70543827</v>
       </c>
       <c r="AE8" t="n">
-        <v>2574510.356073673</v>
+        <v>2855626.318974183</v>
       </c>
       <c r="AF8" t="n">
         <v>3.794720135845712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.35833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2328802.70103798</v>
+        <v>2583089.350987997</v>
       </c>
     </row>
     <row r="9">
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1798.174681044584</v>
+        <v>2003.699462303119</v>
       </c>
       <c r="AB9" t="n">
-        <v>2460.341928473307</v>
+        <v>2741.550001304658</v>
       </c>
       <c r="AC9" t="n">
-        <v>2225.530347931398</v>
+        <v>2479.900316969733</v>
       </c>
       <c r="AD9" t="n">
-        <v>1798174.681044584</v>
+        <v>2003699.462303119</v>
       </c>
       <c r="AE9" t="n">
-        <v>2460341.928473307</v>
+        <v>2741550.001304658</v>
       </c>
       <c r="AF9" t="n">
         <v>3.856119717158284e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.70416666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2225530.347931398</v>
+        <v>2479900.316969734</v>
       </c>
     </row>
     <row r="10">
@@ -4450,28 +4450,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1764.542214416988</v>
+        <v>1969.965510449037</v>
       </c>
       <c r="AB10" t="n">
-        <v>2414.32450387372</v>
+        <v>2695.393720140982</v>
       </c>
       <c r="AC10" t="n">
-        <v>2183.904761749734</v>
+        <v>2438.149126499572</v>
       </c>
       <c r="AD10" t="n">
-        <v>1764542.214416988</v>
+        <v>1969965.510449037</v>
       </c>
       <c r="AE10" t="n">
-        <v>2414324.50387372</v>
+        <v>2695393.720140981</v>
       </c>
       <c r="AF10" t="n">
         <v>3.879850843677867e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.45416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>2183904.761749735</v>
+        <v>2438149.126499572</v>
       </c>
     </row>
     <row r="11">
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1761.97068002399</v>
+        <v>1967.393976056039</v>
       </c>
       <c r="AB11" t="n">
-        <v>2410.806017069129</v>
+        <v>2691.875233336391</v>
       </c>
       <c r="AC11" t="n">
-        <v>2180.722074387547</v>
+        <v>2434.966439137384</v>
       </c>
       <c r="AD11" t="n">
-        <v>1761970.68002399</v>
+        <v>1967393.976056039</v>
       </c>
       <c r="AE11" t="n">
-        <v>2410806.017069129</v>
+        <v>2691875.233336391</v>
       </c>
       <c r="AF11" t="n">
         <v>3.887384534636465e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.375</v>
       </c>
       <c r="AH11" t="n">
-        <v>2180722.074387547</v>
+        <v>2434966.439137384</v>
       </c>
     </row>
     <row r="12">
@@ -4662,28 +4662,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1768.054023788787</v>
+        <v>1973.477319820837</v>
       </c>
       <c r="AB12" t="n">
-        <v>2419.129516386311</v>
+        <v>2700.198732653573</v>
       </c>
       <c r="AC12" t="n">
-        <v>2188.251190612002</v>
+        <v>2442.495555361838</v>
       </c>
       <c r="AD12" t="n">
-        <v>1768054.023788787</v>
+        <v>1973477.319820837</v>
       </c>
       <c r="AE12" t="n">
-        <v>2419129.516386311</v>
+        <v>2700198.732653573</v>
       </c>
       <c r="AF12" t="n">
         <v>3.887384534636465e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>41</v>
+        <v>40.375</v>
       </c>
       <c r="AH12" t="n">
-        <v>2188251.190612002</v>
+        <v>2442495.555361839</v>
       </c>
     </row>
   </sheetData>
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5973.015362804078</v>
+        <v>6398.857029152493</v>
       </c>
       <c r="AB2" t="n">
-        <v>8172.543130229151</v>
+        <v>8755.198484935499</v>
       </c>
       <c r="AC2" t="n">
-        <v>7392.567084116095</v>
+        <v>7919.614629531173</v>
       </c>
       <c r="AD2" t="n">
-        <v>5973015.362804078</v>
+        <v>6398857.029152493</v>
       </c>
       <c r="AE2" t="n">
-        <v>8172543.130229151</v>
+        <v>8755198.4849355</v>
       </c>
       <c r="AF2" t="n">
         <v>2.020831475648231e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>85</v>
+        <v>84.9875</v>
       </c>
       <c r="AH2" t="n">
-        <v>7392567.084116095</v>
+        <v>7919614.629531173</v>
       </c>
     </row>
     <row r="3">
@@ -5065,28 +5065,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2674.661244278193</v>
+        <v>2936.001905912331</v>
       </c>
       <c r="AB3" t="n">
-        <v>3659.589512147869</v>
+        <v>4017.167334931995</v>
       </c>
       <c r="AC3" t="n">
-        <v>3310.323425374477</v>
+        <v>3633.774522615699</v>
       </c>
       <c r="AD3" t="n">
-        <v>2674661.244278193</v>
+        <v>2936001.905912331</v>
       </c>
       <c r="AE3" t="n">
-        <v>3659589.512147869</v>
+        <v>4017167.334931995</v>
       </c>
       <c r="AF3" t="n">
         <v>3.267210097381914e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.55833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>3310323.425374477</v>
+        <v>3633774.522615699</v>
       </c>
     </row>
     <row r="4">
@@ -5171,28 +5171,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2148.809852476521</v>
+        <v>2371.395163121306</v>
       </c>
       <c r="AB4" t="n">
-        <v>2940.096438958503</v>
+        <v>3244.647480753745</v>
       </c>
       <c r="AC4" t="n">
-        <v>2659.497761275572</v>
+        <v>2934.982879081826</v>
       </c>
       <c r="AD4" t="n">
-        <v>2148809.852476521</v>
+        <v>2371395.163121306</v>
       </c>
       <c r="AE4" t="n">
-        <v>2940096.438958503</v>
+        <v>3244647.480753745</v>
       </c>
       <c r="AF4" t="n">
         <v>3.718115590826573e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2659497.761275572</v>
+        <v>2934982.879081826</v>
       </c>
     </row>
     <row r="5">
@@ -5277,28 +5277,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1909.494505906222</v>
+        <v>2122.365101982115</v>
       </c>
       <c r="AB5" t="n">
-        <v>2612.654623933065</v>
+        <v>2903.913564672004</v>
       </c>
       <c r="AC5" t="n">
-        <v>2363.306533508688</v>
+        <v>2626.768129727993</v>
       </c>
       <c r="AD5" t="n">
-        <v>1909494.505906222</v>
+        <v>2122365.101982115</v>
       </c>
       <c r="AE5" t="n">
-        <v>2612654.623933065</v>
+        <v>2903913.564672004</v>
       </c>
       <c r="AF5" t="n">
         <v>3.955933204828006e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.4125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2363306.533508688</v>
+        <v>2626768.129727993</v>
       </c>
     </row>
     <row r="6">
@@ -5383,28 +5383,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1756.22140601562</v>
+        <v>1969.125156480437</v>
       </c>
       <c r="AB6" t="n">
-        <v>2402.93960673081</v>
+        <v>2694.243910767344</v>
       </c>
       <c r="AC6" t="n">
-        <v>2173.606423211341</v>
+        <v>2437.109053318786</v>
       </c>
       <c r="AD6" t="n">
-        <v>1756221.40601562</v>
+        <v>1969125.156480437</v>
       </c>
       <c r="AE6" t="n">
-        <v>2402939.60673081</v>
+        <v>2694243.910767343</v>
       </c>
       <c r="AF6" t="n">
         <v>4.103487287691981e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.85</v>
       </c>
       <c r="AH6" t="n">
-        <v>2173606.423211341</v>
+        <v>2437109.053318786</v>
       </c>
     </row>
     <row r="7">
@@ -5489,28 +5489,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1651.706735745374</v>
+        <v>1864.576320791411</v>
       </c>
       <c r="AB7" t="n">
-        <v>2259.938024005226</v>
+        <v>2551.195581408511</v>
       </c>
       <c r="AC7" t="n">
-        <v>2044.252710837104</v>
+        <v>2307.713055744368</v>
       </c>
       <c r="AD7" t="n">
-        <v>1651706.735745374</v>
+        <v>1864576.320791411</v>
       </c>
       <c r="AE7" t="n">
-        <v>2259938.024005225</v>
+        <v>2551195.581408511</v>
       </c>
       <c r="AF7" t="n">
         <v>4.196635954527898e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.92083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>2044252.710837104</v>
+        <v>2307713.055744369</v>
       </c>
     </row>
     <row r="8">
@@ -5595,28 +5595,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1637.041856153016</v>
+        <v>1840.299222886506</v>
       </c>
       <c r="AB8" t="n">
-        <v>2239.872888778134</v>
+        <v>2517.97858502505</v>
       </c>
       <c r="AC8" t="n">
-        <v>2026.102563954493</v>
+        <v>2277.666242875399</v>
       </c>
       <c r="AD8" t="n">
-        <v>1637041.856153016</v>
+        <v>1840299.222886506</v>
       </c>
       <c r="AE8" t="n">
-        <v>2239872.888778134</v>
+        <v>2517978.58502505</v>
       </c>
       <c r="AF8" t="n">
         <v>4.215595417689191e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.7375</v>
       </c>
       <c r="AH8" t="n">
-        <v>2026102.563954493</v>
+        <v>2277666.242875399</v>
       </c>
     </row>
     <row r="9">
@@ -5701,28 +5701,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1643.806681696216</v>
+        <v>1847.064048429706</v>
       </c>
       <c r="AB9" t="n">
-        <v>2249.128821529381</v>
+        <v>2527.234517776296</v>
       </c>
       <c r="AC9" t="n">
-        <v>2034.475123474743</v>
+        <v>2286.038802395649</v>
       </c>
       <c r="AD9" t="n">
-        <v>1643806.681696216</v>
+        <v>1847064.048429706</v>
       </c>
       <c r="AE9" t="n">
-        <v>2249128.821529381</v>
+        <v>2527234.517776296</v>
       </c>
       <c r="AF9" t="n">
         <v>4.215183255446553e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.74166666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2034475.123474743</v>
+        <v>2286038.802395649</v>
       </c>
     </row>
   </sheetData>
@@ -5998,28 +5998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2054.07378202866</v>
+        <v>2315.958939903443</v>
       </c>
       <c r="AB2" t="n">
-        <v>2810.474367911283</v>
+        <v>3168.7971944735</v>
       </c>
       <c r="AC2" t="n">
-        <v>2542.246638763379</v>
+        <v>2866.371637667624</v>
       </c>
       <c r="AD2" t="n">
-        <v>2054073.78202866</v>
+        <v>2315958.939903444</v>
       </c>
       <c r="AE2" t="n">
-        <v>2810474.367911283</v>
+        <v>3168797.1944735</v>
       </c>
       <c r="AF2" t="n">
         <v>4.459641366213728e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.74583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2542246.638763379</v>
+        <v>2866371.637667624</v>
       </c>
     </row>
     <row r="3">
@@ -6104,28 +6104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1392.23044087488</v>
+        <v>1607.338190051029</v>
       </c>
       <c r="AB3" t="n">
-        <v>1904.911110077195</v>
+        <v>2199.231022384132</v>
       </c>
       <c r="AC3" t="n">
-        <v>1723.109067290961</v>
+        <v>1989.339500247916</v>
       </c>
       <c r="AD3" t="n">
-        <v>1392230.44087488</v>
+        <v>1607338.190051029</v>
       </c>
       <c r="AE3" t="n">
-        <v>1904911.110077195</v>
+        <v>2199231.022384132</v>
       </c>
       <c r="AF3" t="n">
         <v>5.487683048543957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.68333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1723109.067290961</v>
+        <v>1989339.500247916</v>
       </c>
     </row>
     <row r="4">
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1379.32156896672</v>
+        <v>1585.040682014218</v>
       </c>
       <c r="AB4" t="n">
-        <v>1887.248622033215</v>
+        <v>2168.72258819154</v>
       </c>
       <c r="AC4" t="n">
-        <v>1707.132262316441</v>
+        <v>1961.742748195808</v>
       </c>
       <c r="AD4" t="n">
-        <v>1379321.56896672</v>
+        <v>1585040.682014218</v>
       </c>
       <c r="AE4" t="n">
-        <v>1887248.622033215</v>
+        <v>2168722.58819154</v>
       </c>
       <c r="AF4" t="n">
         <v>5.530829733588595e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.33750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>1707132.262316441</v>
+        <v>1961742.748195808</v>
       </c>
     </row>
   </sheetData>
@@ -6507,28 +6507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3019.50674558322</v>
+        <v>3322.813339049279</v>
       </c>
       <c r="AB2" t="n">
-        <v>4131.422340543236</v>
+        <v>4546.419802666045</v>
       </c>
       <c r="AC2" t="n">
-        <v>3737.125190849306</v>
+        <v>4112.515877639696</v>
       </c>
       <c r="AD2" t="n">
-        <v>3019506.74558322</v>
+        <v>3322813.339049278</v>
       </c>
       <c r="AE2" t="n">
-        <v>4131422.340543236</v>
+        <v>4546419.802666045</v>
       </c>
       <c r="AF2" t="n">
         <v>3.325484636424104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.42083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3737125.190849307</v>
+        <v>4112515.877639696</v>
       </c>
     </row>
     <row r="3">
@@ -6613,28 +6613,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1786.688480100919</v>
+        <v>2004.720273248229</v>
       </c>
       <c r="AB3" t="n">
-        <v>2444.626001606761</v>
+        <v>2742.946719874758</v>
       </c>
       <c r="AC3" t="n">
-        <v>2211.314327067554</v>
+        <v>2481.163734679811</v>
       </c>
       <c r="AD3" t="n">
-        <v>1786688.480100919</v>
+        <v>2004720.273248229</v>
       </c>
       <c r="AE3" t="n">
-        <v>2444626.001606761</v>
+        <v>2742946.719874758</v>
       </c>
       <c r="AF3" t="n">
         <v>4.50173470782445e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.1125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2211314.327067554</v>
+        <v>2481163.734679811</v>
       </c>
     </row>
     <row r="4">
@@ -6719,28 +6719,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1497.780982494714</v>
+        <v>1706.261874675984</v>
       </c>
       <c r="AB4" t="n">
-        <v>2049.330017682705</v>
+        <v>2334.582771892951</v>
       </c>
       <c r="AC4" t="n">
-        <v>1853.744837047811</v>
+        <v>2111.773468750987</v>
       </c>
       <c r="AD4" t="n">
-        <v>1497780.982494714</v>
+        <v>1706261.874675984</v>
       </c>
       <c r="AE4" t="n">
-        <v>2049330.017682705</v>
+        <v>2334582.771892951</v>
       </c>
       <c r="AF4" t="n">
         <v>4.896309064685557e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.39583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1853744.837047811</v>
+        <v>2111773.468750987</v>
       </c>
     </row>
     <row r="5">
@@ -6825,28 +6825,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1455.438041821423</v>
+        <v>1663.986253810397</v>
       </c>
       <c r="AB5" t="n">
-        <v>1991.394538214805</v>
+        <v>2276.739402355894</v>
       </c>
       <c r="AC5" t="n">
-        <v>1801.338638427372</v>
+        <v>2059.450589218867</v>
       </c>
       <c r="AD5" t="n">
-        <v>1455438.041821423</v>
+        <v>1663986.253810397</v>
       </c>
       <c r="AE5" t="n">
-        <v>1991394.538214805</v>
+        <v>2276739.402355894</v>
       </c>
       <c r="AF5" t="n">
         <v>4.952107458585108e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.92083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1801338.638427372</v>
+        <v>2059450.589218867</v>
       </c>
     </row>
     <row r="6">
@@ -6931,28 +6931,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1461.893934720978</v>
+        <v>1670.442146709952</v>
       </c>
       <c r="AB6" t="n">
-        <v>2000.22777569387</v>
+        <v>2285.572639834958</v>
       </c>
       <c r="AC6" t="n">
-        <v>1809.328844118961</v>
+        <v>2067.440794910456</v>
       </c>
       <c r="AD6" t="n">
-        <v>1461893.934720978</v>
+        <v>1670442.146709952</v>
       </c>
       <c r="AE6" t="n">
-        <v>2000227.77569387</v>
+        <v>2285572.639834958</v>
       </c>
       <c r="AF6" t="n">
         <v>4.952107458585108e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.91666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1809328.844118961</v>
+        <v>2067440.794910456</v>
       </c>
     </row>
   </sheetData>
@@ -7228,28 +7228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1498.414917358055</v>
+        <v>1729.560346492218</v>
       </c>
       <c r="AB2" t="n">
-        <v>2050.19739532996</v>
+        <v>2366.460768887957</v>
       </c>
       <c r="AC2" t="n">
-        <v>1854.529433389784</v>
+        <v>2140.60907445384</v>
       </c>
       <c r="AD2" t="n">
-        <v>1498414.917358055</v>
+        <v>1729560.346492218</v>
       </c>
       <c r="AE2" t="n">
-        <v>2050197.39532996</v>
+        <v>2366460.768887957</v>
       </c>
       <c r="AF2" t="n">
         <v>5.6824849478956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.31666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1854529.433389784</v>
+        <v>2140609.07445384</v>
       </c>
     </row>
     <row r="3">
@@ -7334,28 +7334,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1328.132141698177</v>
+        <v>1540.809249868767</v>
       </c>
       <c r="AB3" t="n">
-        <v>1817.208989326248</v>
+        <v>2108.203191377066</v>
       </c>
       <c r="AC3" t="n">
-        <v>1643.777113853785</v>
+        <v>1906.999237673801</v>
       </c>
       <c r="AD3" t="n">
-        <v>1328132.141698177</v>
+        <v>1540809.249868767</v>
       </c>
       <c r="AE3" t="n">
-        <v>1817208.989326247</v>
+        <v>2108203.191377066</v>
       </c>
       <c r="AF3" t="n">
         <v>6.065973612050892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.25833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1643777.113853785</v>
+        <v>1906999.237673801</v>
       </c>
     </row>
   </sheetData>
@@ -7631,28 +7631,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6705.692003999056</v>
+        <v>7161.874991168793</v>
       </c>
       <c r="AB2" t="n">
-        <v>9175.023634124316</v>
+        <v>9799.193322543</v>
       </c>
       <c r="AC2" t="n">
-        <v>8299.372255709693</v>
+        <v>8863.972065093332</v>
       </c>
       <c r="AD2" t="n">
-        <v>6705692.003999056</v>
+        <v>7161874.991168792</v>
       </c>
       <c r="AE2" t="n">
-        <v>9175023.634124316</v>
+        <v>9799193.322543001</v>
       </c>
       <c r="AF2" t="n">
         <v>1.864624473346543e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>90</v>
+        <v>89.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>8299372.255709693</v>
+        <v>8863972.065093333</v>
       </c>
     </row>
     <row r="3">
@@ -7737,28 +7737,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2839.925092993264</v>
+        <v>3111.706765722852</v>
       </c>
       <c r="AB3" t="n">
-        <v>3885.710800886279</v>
+        <v>4257.574475676101</v>
       </c>
       <c r="AC3" t="n">
-        <v>3514.864015678908</v>
+        <v>3851.23754326072</v>
       </c>
       <c r="AD3" t="n">
-        <v>2839925.092993264</v>
+        <v>3111706.765722852</v>
       </c>
       <c r="AE3" t="n">
-        <v>3885710.800886279</v>
+        <v>4257574.475676102</v>
       </c>
       <c r="AF3" t="n">
         <v>3.116690043995333e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.76666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3514864.015678908</v>
+        <v>3851237.54326072</v>
       </c>
     </row>
     <row r="4">
@@ -7843,28 +7843,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2252.597323019617</v>
+        <v>2495.218044233944</v>
       </c>
       <c r="AB4" t="n">
-        <v>3082.10303493579</v>
+        <v>3414.067409372044</v>
       </c>
       <c r="AC4" t="n">
-        <v>2787.95144704018</v>
+        <v>3088.23360749515</v>
       </c>
       <c r="AD4" t="n">
-        <v>2252597.323019617</v>
+        <v>2495218.044233944</v>
       </c>
       <c r="AE4" t="n">
-        <v>3082103.03493579</v>
+        <v>3414067.409372044</v>
       </c>
       <c r="AF4" t="n">
         <v>3.576008669655762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.86666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2787951.44704018</v>
+        <v>3088233.607495151</v>
       </c>
     </row>
     <row r="5">
@@ -7949,28 +7949,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2000.511459214499</v>
+        <v>2223.748488449956</v>
       </c>
       <c r="AB5" t="n">
-        <v>2737.188034834038</v>
+        <v>3042.630786756821</v>
       </c>
       <c r="AC5" t="n">
-        <v>2475.954650457012</v>
+        <v>2752.246374827765</v>
       </c>
       <c r="AD5" t="n">
-        <v>2000511.459214499</v>
+        <v>2223748.488449956</v>
       </c>
       <c r="AE5" t="n">
-        <v>2737188.034834038</v>
+        <v>3042630.786756821</v>
       </c>
       <c r="AF5" t="n">
         <v>3.813712091516808e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.94166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2475954.650457012</v>
+        <v>2752246.374827764</v>
       </c>
     </row>
     <row r="6">
@@ -8055,28 +8055,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1848.440257674324</v>
+        <v>2061.901038403247</v>
       </c>
       <c r="AB6" t="n">
-        <v>2529.11750797885</v>
+        <v>2821.183965397173</v>
       </c>
       <c r="AC6" t="n">
-        <v>2287.742082656065</v>
+        <v>2551.93412729623</v>
       </c>
       <c r="AD6" t="n">
-        <v>1848440.257674324</v>
+        <v>2061901.038403247</v>
       </c>
       <c r="AE6" t="n">
-        <v>2529117.50797885</v>
+        <v>2821183.965397173</v>
       </c>
       <c r="AF6" t="n">
         <v>3.964941341296424e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.26666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2287742.082656065</v>
+        <v>2551934.12729623</v>
       </c>
     </row>
     <row r="7">
@@ -8161,28 +8161,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1730.598709370501</v>
+        <v>1934.384726819377</v>
       </c>
       <c r="AB7" t="n">
-        <v>2367.881502787361</v>
+        <v>2646.710522265493</v>
       </c>
       <c r="AC7" t="n">
-        <v>2141.894215503897</v>
+        <v>2394.112184702022</v>
       </c>
       <c r="AD7" t="n">
-        <v>1730598.709370501</v>
+        <v>1934384.726819377</v>
       </c>
       <c r="AE7" t="n">
-        <v>2367881.502787361</v>
+        <v>2646710.522265493</v>
       </c>
       <c r="AF7" t="n">
         <v>4.072330196858013e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.15416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>2141894.215503897</v>
+        <v>2394112.184702022</v>
       </c>
     </row>
     <row r="8">
@@ -8267,28 +8267,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1668.392640224489</v>
+        <v>1872.24597748107</v>
       </c>
       <c r="AB8" t="n">
-        <v>2282.768414643703</v>
+        <v>2561.689544052676</v>
       </c>
       <c r="AC8" t="n">
-        <v>2064.904201035699</v>
+        <v>2317.205489322144</v>
       </c>
       <c r="AD8" t="n">
-        <v>1668392.640224489</v>
+        <v>1872245.97748107</v>
       </c>
       <c r="AE8" t="n">
-        <v>2282768.414643703</v>
+        <v>2561689.544052675</v>
       </c>
       <c r="AF8" t="n">
         <v>4.120997056494539e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.66666666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>2064904.201035699</v>
+        <v>2317205.489322144</v>
       </c>
     </row>
     <row r="9">
@@ -8373,28 +8373,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1667.241149411115</v>
+        <v>1871.094486667696</v>
       </c>
       <c r="AB9" t="n">
-        <v>2281.192894112654</v>
+        <v>2560.114023521628</v>
       </c>
       <c r="AC9" t="n">
-        <v>2063.479045972877</v>
+        <v>2315.780334259322</v>
       </c>
       <c r="AD9" t="n">
-        <v>1667241.149411115</v>
+        <v>1871094.486667696</v>
       </c>
       <c r="AE9" t="n">
-        <v>2281192.894112654</v>
+        <v>2560114.023521628</v>
       </c>
       <c r="AF9" t="n">
         <v>4.121801467397621e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.65833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>2063479.045972877</v>
+        <v>2315780.334259322</v>
       </c>
     </row>
     <row r="10">
@@ -8479,28 +8479,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1671.158269441018</v>
+        <v>1875.011606697599</v>
       </c>
       <c r="AB10" t="n">
-        <v>2286.552470548707</v>
+        <v>2565.473599957681</v>
       </c>
       <c r="AC10" t="n">
-        <v>2068.327111956086</v>
+        <v>2320.628400242531</v>
       </c>
       <c r="AD10" t="n">
-        <v>1671158.269441018</v>
+        <v>1875011.606697599</v>
       </c>
       <c r="AE10" t="n">
-        <v>2286552.470548708</v>
+        <v>2565473.599957681</v>
       </c>
       <c r="AF10" t="n">
         <v>4.126225727364578e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.6125</v>
       </c>
       <c r="AH10" t="n">
-        <v>2068327.111956086</v>
+        <v>2320628.400242531</v>
       </c>
     </row>
   </sheetData>
@@ -8776,28 +8776,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1329.833694217852</v>
+        <v>1550.280649706451</v>
       </c>
       <c r="AB2" t="n">
-        <v>1819.537128550865</v>
+        <v>2121.162378483656</v>
       </c>
       <c r="AC2" t="n">
-        <v>1645.883058738369</v>
+        <v>1918.721618151271</v>
       </c>
       <c r="AD2" t="n">
-        <v>1329833.694217852</v>
+        <v>1550280.649706451</v>
       </c>
       <c r="AE2" t="n">
-        <v>1819537.128550865</v>
+        <v>2121162.378483656</v>
       </c>
       <c r="AF2" t="n">
         <v>6.328714755513915e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.46666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1645883.058738369</v>
+        <v>1918721.618151271</v>
       </c>
     </row>
     <row r="3">
@@ -8882,28 +8882,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1320.146867722764</v>
+        <v>1540.593823211362</v>
       </c>
       <c r="AB3" t="n">
-        <v>1806.283185187662</v>
+        <v>2107.908435120452</v>
       </c>
       <c r="AC3" t="n">
-        <v>1633.894053127723</v>
+        <v>1906.732612540625</v>
       </c>
       <c r="AD3" t="n">
-        <v>1320146.867722763</v>
+        <v>1540593.823211362</v>
       </c>
       <c r="AE3" t="n">
-        <v>1806283.185187662</v>
+        <v>2107908.435120452</v>
       </c>
       <c r="AF3" t="n">
         <v>6.390718568338498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.00833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1633894.053127723</v>
+        <v>1906732.612540625</v>
       </c>
     </row>
   </sheetData>
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4256.420815532138</v>
+        <v>4611.057584879815</v>
       </c>
       <c r="AB2" t="n">
-        <v>5823.822739844935</v>
+        <v>6309.052413136515</v>
       </c>
       <c r="AC2" t="n">
-        <v>5268.005271340466</v>
+        <v>5706.925305637205</v>
       </c>
       <c r="AD2" t="n">
-        <v>4256420.815532138</v>
+        <v>4611057.584879816</v>
       </c>
       <c r="AE2" t="n">
-        <v>5823822.739844935</v>
+        <v>6309052.413136516</v>
       </c>
       <c r="AF2" t="n">
         <v>2.576079916760357e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>73</v>
+        <v>72.49583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>5268005.271340466</v>
+        <v>5706925.305637205</v>
       </c>
     </row>
     <row r="3">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2216.848878445319</v>
+        <v>2456.45848780866</v>
       </c>
       <c r="AB3" t="n">
-        <v>3033.190435959164</v>
+        <v>3361.034874320021</v>
       </c>
       <c r="AC3" t="n">
-        <v>2743.706997860622</v>
+        <v>3040.262423156864</v>
       </c>
       <c r="AD3" t="n">
-        <v>2216848.878445319</v>
+        <v>2456458.48780866</v>
       </c>
       <c r="AE3" t="n">
-        <v>3033190.435959164</v>
+        <v>3361034.874320021</v>
       </c>
       <c r="AF3" t="n">
         <v>3.793309049314486e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.22916666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>2743706.997860622</v>
+        <v>3040262.423156864</v>
       </c>
     </row>
     <row r="4">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1819.774383186642</v>
+        <v>2030.652826617984</v>
       </c>
       <c r="AB4" t="n">
-        <v>2489.895593855674</v>
+        <v>2778.428783458768</v>
       </c>
       <c r="AC4" t="n">
-        <v>2252.263452968502</v>
+        <v>2513.259439914752</v>
       </c>
       <c r="AD4" t="n">
-        <v>1819774.383186642</v>
+        <v>2030652.826617984</v>
       </c>
       <c r="AE4" t="n">
-        <v>2489895.593855674</v>
+        <v>2778428.783458768</v>
       </c>
       <c r="AF4" t="n">
         <v>4.225792890593843e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2252263.452968502</v>
+        <v>2513259.439914751</v>
       </c>
     </row>
     <row r="5">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1612.928173323286</v>
+        <v>1823.805605724772</v>
       </c>
       <c r="AB5" t="n">
-        <v>2206.879484109892</v>
+        <v>2495.411290377331</v>
       </c>
       <c r="AC5" t="n">
-        <v>1996.258003521252</v>
+        <v>2257.25273915546</v>
       </c>
       <c r="AD5" t="n">
-        <v>1612928.173323286</v>
+        <v>1823805.605724772</v>
       </c>
       <c r="AE5" t="n">
-        <v>2206879.484109892</v>
+        <v>2495411.290377331</v>
       </c>
       <c r="AF5" t="n">
         <v>4.453014970934396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.9375</v>
       </c>
       <c r="AH5" t="n">
-        <v>1996258.003521252</v>
+        <v>2257252.739155461</v>
       </c>
     </row>
     <row r="6">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1550.764385707129</v>
+        <v>1752.020219936097</v>
       </c>
       <c r="AB6" t="n">
-        <v>2121.82424742071</v>
+        <v>2397.191358593558</v>
       </c>
       <c r="AC6" t="n">
-        <v>1919.320319245912</v>
+        <v>2168.406779808591</v>
       </c>
       <c r="AD6" t="n">
-        <v>1550764.385707129</v>
+        <v>1752020.219936098</v>
       </c>
       <c r="AE6" t="n">
-        <v>2121824.24742071</v>
+        <v>2397191.358593558</v>
       </c>
       <c r="AF6" t="n">
         <v>4.530996513299793e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.2125</v>
       </c>
       <c r="AH6" t="n">
-        <v>1919320.319245912</v>
+        <v>2168406.779808591</v>
       </c>
     </row>
     <row r="7">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1554.157727551596</v>
+        <v>1755.413561780565</v>
       </c>
       <c r="AB7" t="n">
-        <v>2126.467167435987</v>
+        <v>2401.834278608835</v>
       </c>
       <c r="AC7" t="n">
-        <v>1923.52012549131</v>
+        <v>2172.606586053989</v>
       </c>
       <c r="AD7" t="n">
-        <v>1554157.727551596</v>
+        <v>1755413.561780565</v>
       </c>
       <c r="AE7" t="n">
-        <v>2126467.167435987</v>
+        <v>2401834.278608835</v>
       </c>
       <c r="AF7" t="n">
         <v>4.535478211136885e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.17083333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1923520.12549131</v>
+        <v>2172606.586053989</v>
       </c>
     </row>
   </sheetData>
@@ -10006,28 +10006,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5328.569085899539</v>
+        <v>5724.1281430249</v>
       </c>
       <c r="AB2" t="n">
-        <v>7290.783303205129</v>
+        <v>7832.004655998063</v>
       </c>
       <c r="AC2" t="n">
-        <v>6594.961177425589</v>
+        <v>7084.529123916885</v>
       </c>
       <c r="AD2" t="n">
-        <v>5328569.085899538</v>
+        <v>5724128.1430249</v>
       </c>
       <c r="AE2" t="n">
-        <v>7290783.303205129</v>
+        <v>7832004.655998063</v>
       </c>
       <c r="AF2" t="n">
         <v>2.191310171563053e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>80.44166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>6594961.177425589</v>
+        <v>7084529.123916885</v>
       </c>
     </row>
     <row r="3">
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2519.770973221554</v>
+        <v>2770.597839264248</v>
       </c>
       <c r="AB3" t="n">
-        <v>3447.661810011674</v>
+        <v>3790.854193831658</v>
       </c>
       <c r="AC3" t="n">
-        <v>3118.62180568777</v>
+        <v>3429.060390069499</v>
       </c>
       <c r="AD3" t="n">
-        <v>2519770.973221554</v>
+        <v>2770597.839264248</v>
       </c>
       <c r="AE3" t="n">
-        <v>3447661.810011674</v>
+        <v>3790854.193831658</v>
       </c>
       <c r="AF3" t="n">
         <v>3.426566098390102e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.44166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3118621.80568777</v>
+        <v>3429060.390069499</v>
       </c>
     </row>
     <row r="4">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2034.324799021056</v>
+        <v>2256.198393763462</v>
       </c>
       <c r="AB4" t="n">
-        <v>2783.45293809664</v>
+        <v>3087.030178795548</v>
       </c>
       <c r="AC4" t="n">
-        <v>2517.80409628543</v>
+        <v>2792.408351205252</v>
       </c>
       <c r="AD4" t="n">
-        <v>2034324.799021056</v>
+        <v>2256198.393763462</v>
       </c>
       <c r="AE4" t="n">
-        <v>2783452.93809664</v>
+        <v>3087030.178795548</v>
       </c>
       <c r="AF4" t="n">
         <v>3.874134855439081e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.49583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2517804.09628543</v>
+        <v>2792408.351205252</v>
       </c>
     </row>
     <row r="5">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1810.76003990608</v>
+        <v>2032.632623618626</v>
       </c>
       <c r="AB5" t="n">
-        <v>2477.561771694452</v>
+        <v>2781.137629057525</v>
       </c>
       <c r="AC5" t="n">
-        <v>2241.106753483718</v>
+        <v>2515.709757091453</v>
       </c>
       <c r="AD5" t="n">
-        <v>1810760.03990608</v>
+        <v>2032632.623618626</v>
       </c>
       <c r="AE5" t="n">
-        <v>2477561.771694452</v>
+        <v>2781137.629057525</v>
       </c>
       <c r="AF5" t="n">
         <v>4.105956858144979e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.92916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2241106.753483718</v>
+        <v>2515709.757091452</v>
       </c>
     </row>
     <row r="6">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1666.327105880748</v>
+        <v>1868.898519756291</v>
       </c>
       <c r="AB6" t="n">
-        <v>2279.942259429652</v>
+        <v>2557.109404714221</v>
       </c>
       <c r="AC6" t="n">
-        <v>2062.347770108744</v>
+        <v>2313.062472053885</v>
       </c>
       <c r="AD6" t="n">
-        <v>1666327.105880748</v>
+        <v>1868898.519756291</v>
       </c>
       <c r="AE6" t="n">
-        <v>2279942.259429652</v>
+        <v>2557109.404714221</v>
       </c>
       <c r="AF6" t="n">
         <v>4.251903191965298e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.45416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>2062347.770108744</v>
+        <v>2313062.472053885</v>
       </c>
     </row>
     <row r="7">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1603.807335023664</v>
+        <v>1806.446068706912</v>
       </c>
       <c r="AB7" t="n">
-        <v>2194.399950765362</v>
+        <v>2471.659205980773</v>
       </c>
       <c r="AC7" t="n">
-        <v>1984.969499323989</v>
+        <v>2235.76752035745</v>
       </c>
       <c r="AD7" t="n">
-        <v>1603807.335023664</v>
+        <v>1806446.068706912</v>
       </c>
       <c r="AE7" t="n">
-        <v>2194399.950765362</v>
+        <v>2471659.205980773</v>
       </c>
       <c r="AF7" t="n">
         <v>4.311973856900038e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.875</v>
       </c>
       <c r="AH7" t="n">
-        <v>1984969.499323989</v>
+        <v>2235767.52035745</v>
       </c>
     </row>
     <row r="8">
@@ -10642,28 +10642,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1608.763517241363</v>
+        <v>1811.402250924611</v>
       </c>
       <c r="AB8" t="n">
-        <v>2201.181217926945</v>
+        <v>2478.440473142356</v>
       </c>
       <c r="AC8" t="n">
-        <v>1991.103571865239</v>
+        <v>2241.901592898701</v>
       </c>
       <c r="AD8" t="n">
-        <v>1608763.517241363</v>
+        <v>1811402.250924611</v>
       </c>
       <c r="AE8" t="n">
-        <v>2201181.217926945</v>
+        <v>2478440.473142356</v>
       </c>
       <c r="AF8" t="n">
         <v>4.314089021158303e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.85833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1991103.571865239</v>
+        <v>2241901.5928987</v>
       </c>
     </row>
     <row r="9">
@@ -10748,28 +10748,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1614.315904150701</v>
+        <v>1816.954637833949</v>
       </c>
       <c r="AB9" t="n">
-        <v>2208.778238650324</v>
+        <v>2486.037493865736</v>
       </c>
       <c r="AC9" t="n">
-        <v>1997.975543593265</v>
+        <v>2248.773564626726</v>
       </c>
       <c r="AD9" t="n">
-        <v>1614315.904150701</v>
+        <v>1816954.637833949</v>
       </c>
       <c r="AE9" t="n">
-        <v>2208778.238650324</v>
+        <v>2486037.493865735</v>
       </c>
       <c r="AF9" t="n">
         <v>4.313242955454998e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.8625</v>
       </c>
       <c r="AH9" t="n">
-        <v>1997975.543593265</v>
+        <v>2248773.564626725</v>
       </c>
     </row>
   </sheetData>
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8559.468821505267</v>
+        <v>9066.966424233324</v>
       </c>
       <c r="AB2" t="n">
-        <v>11711.4428586977</v>
+        <v>12405.82346796435</v>
       </c>
       <c r="AC2" t="n">
-        <v>10593.71918937644</v>
+        <v>11221.82908786396</v>
       </c>
       <c r="AD2" t="n">
-        <v>8559468.821505267</v>
+        <v>9066966.424233323</v>
       </c>
       <c r="AE2" t="n">
-        <v>11711442.8586977</v>
+        <v>12405823.46796435</v>
       </c>
       <c r="AF2" t="n">
         <v>1.580538983913622e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>102</v>
+        <v>101.3791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>10593719.18937644</v>
+        <v>11221829.08786396</v>
       </c>
     </row>
     <row r="3">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3187.601054172766</v>
+        <v>3470.587617853865</v>
       </c>
       <c r="AB3" t="n">
-        <v>4361.41638935298</v>
+        <v>4748.61109026756</v>
       </c>
       <c r="AC3" t="n">
-        <v>3945.168930439315</v>
+        <v>4295.410312529769</v>
       </c>
       <c r="AD3" t="n">
-        <v>3187601.054172766</v>
+        <v>3470587.617853865</v>
       </c>
       <c r="AE3" t="n">
-        <v>4361416.38935298</v>
+        <v>4748611.09026756</v>
       </c>
       <c r="AF3" t="n">
         <v>2.852276798950689e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.17499999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>3945168.930439315</v>
+        <v>4295410.312529769</v>
       </c>
     </row>
     <row r="4">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2490.533512477822</v>
+        <v>2734.468736251836</v>
       </c>
       <c r="AB4" t="n">
-        <v>3407.657826356362</v>
+        <v>3741.42076118654</v>
       </c>
       <c r="AC4" t="n">
-        <v>3082.43574608658</v>
+        <v>3384.344814855775</v>
       </c>
       <c r="AD4" t="n">
-        <v>2490533.512477822</v>
+        <v>2734468.736251836</v>
       </c>
       <c r="AE4" t="n">
-        <v>3407657.826356362</v>
+        <v>3741420.761186541</v>
       </c>
       <c r="AF4" t="n">
         <v>3.314901713220296e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.33750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>3082435.74608658</v>
+        <v>3384344.814855774</v>
       </c>
     </row>
     <row r="5">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2188.475217365114</v>
+        <v>2422.680760551282</v>
       </c>
       <c r="AB5" t="n">
-        <v>2994.368341111471</v>
+        <v>3314.818697718318</v>
       </c>
       <c r="AC5" t="n">
-        <v>2708.590029258153</v>
+        <v>2998.457053585218</v>
       </c>
       <c r="AD5" t="n">
-        <v>2188475.217365114</v>
+        <v>2422680.760551282</v>
       </c>
       <c r="AE5" t="n">
-        <v>2994368.341111471</v>
+        <v>3314818.697718318</v>
       </c>
       <c r="AF5" t="n">
         <v>3.564096180757042e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.95833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2708590.029258153</v>
+        <v>2998457.053585218</v>
       </c>
     </row>
     <row r="6">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2025.785321475744</v>
+        <v>2240.466205738227</v>
       </c>
       <c r="AB6" t="n">
-        <v>2771.768848183983</v>
+        <v>3065.504705084269</v>
       </c>
       <c r="AC6" t="n">
-        <v>2507.235119515314</v>
+        <v>2772.937238493786</v>
       </c>
       <c r="AD6" t="n">
-        <v>2025785.321475744</v>
+        <v>2240466.205738227</v>
       </c>
       <c r="AE6" t="n">
-        <v>2771768.848183983</v>
+        <v>3065504.705084269</v>
       </c>
       <c r="AF6" t="n">
         <v>3.717919926150096e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.09583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>2507235.119515314</v>
+        <v>2772937.238493786</v>
       </c>
     </row>
     <row r="7">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1892.869917404617</v>
+        <v>2107.583956056022</v>
       </c>
       <c r="AB7" t="n">
-        <v>2589.908128520087</v>
+        <v>2883.689348717787</v>
       </c>
       <c r="AC7" t="n">
-        <v>2342.730931693017</v>
+        <v>2608.474084559582</v>
       </c>
       <c r="AD7" t="n">
-        <v>1892869.917404617</v>
+        <v>2107583.956056022</v>
       </c>
       <c r="AE7" t="n">
-        <v>2589908.128520087</v>
+        <v>2883689.348717787</v>
       </c>
       <c r="AF7" t="n">
         <v>3.827903904106129e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.8625</v>
       </c>
       <c r="AH7" t="n">
-        <v>2342730.931693017</v>
+        <v>2608474.084559582</v>
       </c>
     </row>
     <row r="8">
@@ -11681,28 +11681,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1806.054040747811</v>
+        <v>2010.972090033521</v>
       </c>
       <c r="AB8" t="n">
-        <v>2471.122816032077</v>
+        <v>2751.500731411084</v>
       </c>
       <c r="AC8" t="n">
-        <v>2235.282322712631</v>
+        <v>2488.901363360741</v>
       </c>
       <c r="AD8" t="n">
-        <v>1806054.040747811</v>
+        <v>2010972.09003352</v>
       </c>
       <c r="AE8" t="n">
-        <v>2471122.816032078</v>
+        <v>2751500.731411085</v>
       </c>
       <c r="AF8" t="n">
         <v>3.903662098712207e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.04583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>2235282.322712631</v>
+        <v>2488901.363360741</v>
       </c>
     </row>
     <row r="9">
@@ -11787,28 +11787,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1740.216781915505</v>
+        <v>1945.202151008919</v>
       </c>
       <c r="AB9" t="n">
-        <v>2381.041373962849</v>
+        <v>2661.511399272698</v>
       </c>
       <c r="AC9" t="n">
-        <v>2153.798127044392</v>
+        <v>2407.500486780821</v>
       </c>
       <c r="AD9" t="n">
-        <v>1740216.781915505</v>
+        <v>1945202.151008919</v>
       </c>
       <c r="AE9" t="n">
-        <v>2381041.373962849</v>
+        <v>2661511.399272698</v>
       </c>
       <c r="AF9" t="n">
         <v>3.949809222330123e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.56666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2153798.127044392</v>
+        <v>2407500.486780821</v>
       </c>
     </row>
     <row r="10">
@@ -11893,28 +11893,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1729.738898130641</v>
+        <v>1934.62278199757</v>
       </c>
       <c r="AB10" t="n">
-        <v>2366.70507111679</v>
+        <v>2647.036239862549</v>
       </c>
       <c r="AC10" t="n">
-        <v>2140.830060820833</v>
+        <v>2394.406816268763</v>
       </c>
       <c r="AD10" t="n">
-        <v>1729738.898130641</v>
+        <v>1934622.78199757</v>
       </c>
       <c r="AE10" t="n">
-        <v>2366705.07111679</v>
+        <v>2647036.239862549</v>
       </c>
       <c r="AF10" t="n">
         <v>3.957884968963258e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.48333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2140830.060820833</v>
+        <v>2394406.816268763</v>
       </c>
     </row>
     <row r="11">
@@ -11999,28 +11999,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1732.762114881858</v>
+        <v>1937.645998748787</v>
       </c>
       <c r="AB11" t="n">
-        <v>2370.841569650714</v>
+        <v>2651.172738396474</v>
       </c>
       <c r="AC11" t="n">
-        <v>2144.571777740292</v>
+        <v>2398.148533188221</v>
       </c>
       <c r="AD11" t="n">
-        <v>1732762.114881858</v>
+        <v>1937645.998748787</v>
       </c>
       <c r="AE11" t="n">
-        <v>2370841.569650714</v>
+        <v>2651172.738396474</v>
       </c>
       <c r="AF11" t="n">
         <v>3.961730562598085e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.44583333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2144571.777740291</v>
+        <v>2398148.533188222</v>
       </c>
     </row>
   </sheetData>
@@ -12296,28 +12296,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3390.165401654804</v>
+        <v>3713.768298450248</v>
       </c>
       <c r="AB2" t="n">
-        <v>4638.573866086223</v>
+        <v>5081.341625834008</v>
       </c>
       <c r="AC2" t="n">
-        <v>4195.874886586088</v>
+        <v>4596.385512771982</v>
       </c>
       <c r="AD2" t="n">
-        <v>3390165.401654804</v>
+        <v>3713768.298450248</v>
       </c>
       <c r="AE2" t="n">
-        <v>4638573.866086223</v>
+        <v>5081341.625834009</v>
       </c>
       <c r="AF2" t="n">
         <v>3.047130675159953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.55833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>4195874.886586088</v>
+        <v>4596385.512771982</v>
       </c>
     </row>
     <row r="3">
@@ -12402,28 +12402,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1930.41913508081</v>
+        <v>2158.79145759527</v>
       </c>
       <c r="AB3" t="n">
-        <v>2641.284624699225</v>
+        <v>2953.753711439315</v>
       </c>
       <c r="AC3" t="n">
-        <v>2389.204127184184</v>
+        <v>2671.851602838918</v>
       </c>
       <c r="AD3" t="n">
-        <v>1930419.13508081</v>
+        <v>2158791.457595271</v>
       </c>
       <c r="AE3" t="n">
-        <v>2641284.624699225</v>
+        <v>2953753.711439315</v>
       </c>
       <c r="AF3" t="n">
         <v>4.236547164315372e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.15416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2389204.127184183</v>
+        <v>2671851.602838918</v>
       </c>
     </row>
     <row r="4">
@@ -12508,28 +12508,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1591.169866093632</v>
+        <v>1800.570024437385</v>
       </c>
       <c r="AB4" t="n">
-        <v>2177.108808249511</v>
+        <v>2463.619342978428</v>
       </c>
       <c r="AC4" t="n">
-        <v>1969.328599181581</v>
+        <v>2228.494970596031</v>
       </c>
       <c r="AD4" t="n">
-        <v>1591169.866093632</v>
+        <v>1800570.024437385</v>
       </c>
       <c r="AE4" t="n">
-        <v>2177108.808249511</v>
+        <v>2463619.342978429</v>
       </c>
       <c r="AF4" t="n">
         <v>4.65938688355563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.87083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1969328.599181581</v>
+        <v>2228494.970596031</v>
       </c>
     </row>
     <row r="5">
@@ -12614,28 +12614,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1487.732287191681</v>
+        <v>1697.098280116652</v>
       </c>
       <c r="AB5" t="n">
-        <v>2035.580949451944</v>
+        <v>2322.044737547614</v>
       </c>
       <c r="AC5" t="n">
-        <v>1841.307960592056</v>
+        <v>2100.432046806327</v>
       </c>
       <c r="AD5" t="n">
-        <v>1487732.287191681</v>
+        <v>1697098.280116652</v>
       </c>
       <c r="AE5" t="n">
-        <v>2035580.949451944</v>
+        <v>2322044.737547614</v>
       </c>
       <c r="AF5" t="n">
         <v>4.795059945398026e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.65833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1841307.960592056</v>
+        <v>2100432.046806327</v>
       </c>
     </row>
     <row r="6">
@@ -12720,28 +12720,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1491.44115827836</v>
+        <v>1700.807151203332</v>
       </c>
       <c r="AB6" t="n">
-        <v>2040.655590496583</v>
+        <v>2327.119378592253</v>
       </c>
       <c r="AC6" t="n">
-        <v>1845.898285017698</v>
+        <v>2105.022371231968</v>
       </c>
       <c r="AD6" t="n">
-        <v>1491441.15827836</v>
+        <v>1700807.151203332</v>
       </c>
       <c r="AE6" t="n">
-        <v>2040655.590496583</v>
+        <v>2327119.378592253</v>
       </c>
       <c r="AF6" t="n">
         <v>4.79601876562306e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.65</v>
       </c>
       <c r="AH6" t="n">
-        <v>1845898.285017698</v>
+        <v>2105022.371231969</v>
       </c>
     </row>
     <row r="7">
@@ -12826,28 +12826,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1498.217180425725</v>
+        <v>1707.583173350696</v>
       </c>
       <c r="AB7" t="n">
-        <v>2049.926842935608</v>
+        <v>2336.390631031277</v>
       </c>
       <c r="AC7" t="n">
-        <v>1854.284702136227</v>
+        <v>2113.408788350496</v>
       </c>
       <c r="AD7" t="n">
-        <v>1498217.180425724</v>
+        <v>1707583.173350696</v>
       </c>
       <c r="AE7" t="n">
-        <v>2049926.842935607</v>
+        <v>2336390.631031277</v>
       </c>
       <c r="AF7" t="n">
         <v>4.795539355510543e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.65416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1854284.702136226</v>
+        <v>2113408.788350496</v>
       </c>
     </row>
   </sheetData>
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2354.872251407395</v>
+        <v>2627.465153679372</v>
       </c>
       <c r="AB2" t="n">
-        <v>3222.040104007352</v>
+        <v>3595.013738845992</v>
       </c>
       <c r="AC2" t="n">
-        <v>2914.533118642456</v>
+        <v>3251.910673243867</v>
       </c>
       <c r="AD2" t="n">
-        <v>2354872.251407395</v>
+        <v>2627465.153679372</v>
       </c>
       <c r="AE2" t="n">
-        <v>3222040.104007352</v>
+        <v>3595013.738845991</v>
       </c>
       <c r="AF2" t="n">
         <v>4.01809764131731e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.52916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>2914533.118642456</v>
+        <v>3251910.673243867</v>
       </c>
     </row>
     <row r="3">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1498.32352637229</v>
+        <v>1705.076740674815</v>
       </c>
       <c r="AB3" t="n">
-        <v>2050.072350151349</v>
+        <v>2332.96121926813</v>
       </c>
       <c r="AC3" t="n">
-        <v>1854.416322347519</v>
+        <v>2110.306674832815</v>
       </c>
       <c r="AD3" t="n">
-        <v>1498323.52637229</v>
+        <v>1705076.740674815</v>
       </c>
       <c r="AE3" t="n">
-        <v>2050072.35015135</v>
+        <v>2332961.21926813</v>
       </c>
       <c r="AF3" t="n">
         <v>5.155223089667318e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.05833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1854416.322347519</v>
+        <v>2110306.674832815</v>
       </c>
     </row>
     <row r="4">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1399.867034198652</v>
+        <v>1606.653402890101</v>
       </c>
       <c r="AB4" t="n">
-        <v>1915.359833965499</v>
+        <v>2198.294066379874</v>
       </c>
       <c r="AC4" t="n">
-        <v>1732.560579636242</v>
+        <v>1988.491966009678</v>
       </c>
       <c r="AD4" t="n">
-        <v>1399867.034198652</v>
+        <v>1606653.402890101</v>
       </c>
       <c r="AE4" t="n">
-        <v>1915359.833965499</v>
+        <v>2198294.066379874</v>
       </c>
       <c r="AF4" t="n">
         <v>5.313308602621059e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.75</v>
       </c>
       <c r="AH4" t="n">
-        <v>1732560.579636242</v>
+        <v>1988491.966009678</v>
       </c>
     </row>
     <row r="5">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1406.968882251562</v>
+        <v>1613.755250943011</v>
       </c>
       <c r="AB5" t="n">
-        <v>1925.076895782914</v>
+        <v>2208.011128197288</v>
       </c>
       <c r="AC5" t="n">
-        <v>1741.350258711785</v>
+        <v>1997.28164508522</v>
       </c>
       <c r="AD5" t="n">
-        <v>1406968.882251562</v>
+        <v>1613755.250943011</v>
       </c>
       <c r="AE5" t="n">
-        <v>1925076.895782914</v>
+        <v>2208011.128197288</v>
       </c>
       <c r="AF5" t="n">
         <v>5.313308602621059e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.75</v>
       </c>
       <c r="AH5" t="n">
-        <v>1741350.258711785</v>
+        <v>1997281.64508522</v>
       </c>
     </row>
   </sheetData>
@@ -24431,19 +24431,19 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1766.180930530251</v>
+        <v>2017.339554550521</v>
       </c>
       <c r="AB2" t="n">
-        <v>2416.566667554939</v>
+        <v>2760.212977275953</v>
       </c>
       <c r="AC2" t="n">
-        <v>2185.932936476114</v>
+        <v>2496.78212470798</v>
       </c>
       <c r="AD2" t="n">
-        <v>1766180.930530251</v>
+        <v>2017339.554550521</v>
       </c>
       <c r="AE2" t="n">
-        <v>2416566.667554939</v>
+        <v>2760212.977275953</v>
       </c>
       <c r="AF2" t="n">
         <v>5.001639901491254e-06</v>
@@ -24452,7 +24452,7 @@
         <v>51</v>
       </c>
       <c r="AH2" t="n">
-        <v>2185932.936476114</v>
+        <v>2496782.12470798</v>
       </c>
     </row>
     <row r="3">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1352.584406503177</v>
+        <v>1557.248369883823</v>
       </c>
       <c r="AB3" t="n">
-        <v>1850.665656790236</v>
+        <v>2130.695920624456</v>
       </c>
       <c r="AC3" t="n">
-        <v>1674.040723931739</v>
+        <v>1927.345292410564</v>
       </c>
       <c r="AD3" t="n">
-        <v>1352584.406503177</v>
+        <v>1557248.369883823</v>
       </c>
       <c r="AE3" t="n">
-        <v>1850665.656790236</v>
+        <v>2130695.920624456</v>
       </c>
       <c r="AF3" t="n">
         <v>5.771170055245785e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>1674040.723931738</v>
+        <v>1927345.292410564</v>
       </c>
     </row>
     <row r="4">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1357.148546694304</v>
+        <v>1561.81251007495</v>
       </c>
       <c r="AB4" t="n">
-        <v>1856.91051475539</v>
+        <v>2136.94077858961</v>
       </c>
       <c r="AC4" t="n">
-        <v>1679.689581417412</v>
+        <v>1932.994149896237</v>
       </c>
       <c r="AD4" t="n">
-        <v>1357148.546694304</v>
+        <v>1561812.51007495</v>
       </c>
       <c r="AE4" t="n">
-        <v>1856910.51475539</v>
+        <v>2136940.77858961</v>
       </c>
       <c r="AF4" t="n">
         <v>5.779740796815047e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.13333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1679689.581417412</v>
+        <v>1932994.149896237</v>
       </c>
     </row>
   </sheetData>
@@ -24940,28 +24940,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1312.368534584639</v>
+        <v>1540.244101081658</v>
       </c>
       <c r="AB2" t="n">
-        <v>1795.640526632241</v>
+        <v>2107.42992987394</v>
       </c>
       <c r="AC2" t="n">
-        <v>1624.267114967767</v>
+        <v>1906.299775163254</v>
       </c>
       <c r="AD2" t="n">
-        <v>1312368.534584639</v>
+        <v>1540244.101081658</v>
       </c>
       <c r="AE2" t="n">
-        <v>1795640.526632241</v>
+        <v>2107429.92987394</v>
       </c>
       <c r="AF2" t="n">
         <v>6.745487928188764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.0125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1624267.114967767</v>
+        <v>1906299.775163254</v>
       </c>
     </row>
     <row r="3">
@@ -25046,28 +25046,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1314.112427609838</v>
+        <v>1551.104698529189</v>
       </c>
       <c r="AB3" t="n">
-        <v>1798.026598004449</v>
+        <v>2122.289878437395</v>
       </c>
       <c r="AC3" t="n">
-        <v>1626.425463037083</v>
+        <v>1919.741511091882</v>
       </c>
       <c r="AD3" t="n">
-        <v>1314112.427609838</v>
+        <v>1551104.698529189</v>
       </c>
       <c r="AE3" t="n">
-        <v>1798026.598004449</v>
+        <v>2122289.878437395</v>
       </c>
       <c r="AF3" t="n">
         <v>6.74872666924179e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1626425.463037083</v>
+        <v>1919741.511091882</v>
       </c>
     </row>
   </sheetData>
@@ -25343,28 +25343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4758.861173517465</v>
+        <v>5133.92249536867</v>
       </c>
       <c r="AB2" t="n">
-        <v>6511.283803744689</v>
+        <v>7024.459250839261</v>
       </c>
       <c r="AC2" t="n">
-        <v>5889.856016159264</v>
+        <v>6354.054718829375</v>
       </c>
       <c r="AD2" t="n">
-        <v>4758861.173517466</v>
+        <v>5133922.49536867</v>
       </c>
       <c r="AE2" t="n">
-        <v>6511283.803744689</v>
+        <v>7024459.25083926</v>
       </c>
       <c r="AF2" t="n">
         <v>2.37624656022484e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>77</v>
+        <v>76.27499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>5889856.016159264</v>
+        <v>6354054.718829375</v>
       </c>
     </row>
     <row r="3">
@@ -25449,28 +25449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2368.617494070238</v>
+        <v>2618.61315842262</v>
       </c>
       <c r="AB3" t="n">
-        <v>3240.846951415963</v>
+        <v>3582.902048413233</v>
       </c>
       <c r="AC3" t="n">
-        <v>2931.545066929966</v>
+        <v>3240.954905547146</v>
       </c>
       <c r="AD3" t="n">
-        <v>2368617.494070238</v>
+        <v>2618613.15842262</v>
       </c>
       <c r="AE3" t="n">
-        <v>3240846.951415963</v>
+        <v>3582902.048413233</v>
       </c>
       <c r="AF3" t="n">
         <v>3.599819976646672e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.34583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2931545.066929966</v>
+        <v>3240954.905547146</v>
       </c>
     </row>
     <row r="4">
@@ -25555,28 +25555,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1924.370994064861</v>
+        <v>2145.606838067076</v>
       </c>
       <c r="AB4" t="n">
-        <v>2633.009291336053</v>
+        <v>2935.713933336477</v>
       </c>
       <c r="AC4" t="n">
-        <v>2381.718580022689</v>
+        <v>2655.533515839227</v>
       </c>
       <c r="AD4" t="n">
-        <v>1924370.994064861</v>
+        <v>2145606.838067076</v>
       </c>
       <c r="AE4" t="n">
-        <v>2633009.291336053</v>
+        <v>2935713.933336477</v>
       </c>
       <c r="AF4" t="n">
         <v>4.040445597277784e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.85833333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2381718.580022689</v>
+        <v>2655533.515839227</v>
       </c>
     </row>
     <row r="5">
@@ -25661,28 +25661,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1714.665278801763</v>
+        <v>1926.179202385276</v>
       </c>
       <c r="AB5" t="n">
-        <v>2346.080680149868</v>
+        <v>2635.483361732565</v>
       </c>
       <c r="AC5" t="n">
-        <v>2122.174032781279</v>
+        <v>2383.956528612939</v>
       </c>
       <c r="AD5" t="n">
-        <v>1714665.278801763</v>
+        <v>1926179.202385276</v>
       </c>
       <c r="AE5" t="n">
-        <v>2346080.680149868</v>
+        <v>2635483.361732565</v>
       </c>
       <c r="AF5" t="n">
         <v>4.275764907012662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.3875</v>
       </c>
       <c r="AH5" t="n">
-        <v>2122174.03278128</v>
+        <v>2383956.528612939</v>
       </c>
     </row>
     <row r="6">
@@ -25767,28 +25767,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1599.069246267331</v>
+        <v>1800.996900077408</v>
       </c>
       <c r="AB6" t="n">
-        <v>2187.917088699224</v>
+        <v>2464.203413061531</v>
       </c>
       <c r="AC6" t="n">
-        <v>1979.10535251469</v>
+        <v>2229.023297850151</v>
       </c>
       <c r="AD6" t="n">
-        <v>1599069.246267332</v>
+        <v>1800996.900077408</v>
       </c>
       <c r="AE6" t="n">
-        <v>2187917.088699224</v>
+        <v>2464203.413061531</v>
       </c>
       <c r="AF6" t="n">
         <v>4.396686844362562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.225</v>
       </c>
       <c r="AH6" t="n">
-        <v>1979105.35251469</v>
+        <v>2229023.297850151</v>
       </c>
     </row>
     <row r="7">
@@ -25873,28 +25873,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1583.060115029618</v>
+        <v>1784.987768839694</v>
       </c>
       <c r="AB7" t="n">
-        <v>2166.012689066761</v>
+        <v>2442.299013429068</v>
       </c>
       <c r="AC7" t="n">
-        <v>1959.291478040131</v>
+        <v>2209.209423375592</v>
       </c>
       <c r="AD7" t="n">
-        <v>1583060.115029618</v>
+        <v>1784987.768839694</v>
       </c>
       <c r="AE7" t="n">
-        <v>2166012.689066761</v>
+        <v>2442299.013429068</v>
       </c>
       <c r="AF7" t="n">
         <v>4.419305336240961e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.00833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1959291.478040131</v>
+        <v>2209209.423375592</v>
       </c>
     </row>
     <row r="8">
@@ -25979,28 +25979,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1588.471698570971</v>
+        <v>1790.399352381047</v>
       </c>
       <c r="AB8" t="n">
-        <v>2173.417056410256</v>
+        <v>2449.703380772563</v>
       </c>
       <c r="AC8" t="n">
-        <v>1965.989182956458</v>
+        <v>2215.907128291918</v>
       </c>
       <c r="AD8" t="n">
-        <v>1588471.698570971</v>
+        <v>1790399.352381047</v>
       </c>
       <c r="AE8" t="n">
-        <v>2173417.056410256</v>
+        <v>2449703.380772563</v>
       </c>
       <c r="AF8" t="n">
         <v>4.419740307238622e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.00833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1965989.182956458</v>
+        <v>2215907.128291918</v>
       </c>
     </row>
   </sheetData>
@@ -26276,28 +26276,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7554.72822988212</v>
+        <v>8031.63852467311</v>
       </c>
       <c r="AB2" t="n">
-        <v>10336.7124552123</v>
+        <v>10989.24216034267</v>
       </c>
       <c r="AC2" t="n">
-        <v>9350.191126153501</v>
+        <v>9940.444312057391</v>
       </c>
       <c r="AD2" t="n">
-        <v>7554728.22988212</v>
+        <v>8031638.52467311</v>
       </c>
       <c r="AE2" t="n">
-        <v>10336712.4552123</v>
+        <v>10989242.16034267</v>
       </c>
       <c r="AF2" t="n">
         <v>1.719149684573219e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>96</v>
+        <v>95.25833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>9350191.126153501</v>
+        <v>9940444.312057391</v>
       </c>
     </row>
     <row r="3">
@@ -26382,28 +26382,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>3006.47125450945</v>
+        <v>3288.722293248946</v>
       </c>
       <c r="AB3" t="n">
-        <v>4113.586606570824</v>
+        <v>4499.774929811232</v>
       </c>
       <c r="AC3" t="n">
-        <v>3720.991674294612</v>
+        <v>4070.322725983657</v>
       </c>
       <c r="AD3" t="n">
-        <v>3006471.25450945</v>
+        <v>3288722.293248946</v>
       </c>
       <c r="AE3" t="n">
-        <v>4113586.606570824</v>
+        <v>4499774.929811232</v>
       </c>
       <c r="AF3" t="n">
         <v>2.979230591921583e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.96666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3720991.674294612</v>
+        <v>4070322.725983657</v>
       </c>
     </row>
     <row r="4">
@@ -26488,28 +26488,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2370.84277200853</v>
+        <v>2614.182660994967</v>
       </c>
       <c r="AB4" t="n">
-        <v>3243.891674863469</v>
+        <v>3576.840046372967</v>
       </c>
       <c r="AC4" t="n">
-        <v>2934.299206244937</v>
+        <v>3235.471452473531</v>
       </c>
       <c r="AD4" t="n">
-        <v>2370842.77200853</v>
+        <v>2614182.660994967</v>
       </c>
       <c r="AE4" t="n">
-        <v>3243891.674863469</v>
+        <v>3576840.046372967</v>
       </c>
       <c r="AF4" t="n">
         <v>3.439871522493099e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>48</v>
+        <v>47.60833333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>2934299.206244937</v>
+        <v>3235471.452473531</v>
       </c>
     </row>
     <row r="5">
@@ -26594,28 +26594,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2099.694455614645</v>
+        <v>2323.49436720746</v>
       </c>
       <c r="AB5" t="n">
-        <v>2872.894586153701</v>
+        <v>3179.107498550446</v>
       </c>
       <c r="AC5" t="n">
-        <v>2598.709558984067</v>
+        <v>2875.697940794069</v>
       </c>
       <c r="AD5" t="n">
-        <v>2099694.455614645</v>
+        <v>2323494.36720746</v>
       </c>
       <c r="AE5" t="n">
-        <v>2872894.586153701</v>
+        <v>3179107.498550446</v>
       </c>
       <c r="AF5" t="n">
         <v>3.685520482908797e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.43333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>2598709.558984067</v>
+        <v>2875697.940794069</v>
       </c>
     </row>
     <row r="6">
@@ -26700,28 +26700,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1933.998611642867</v>
+        <v>2148.163679669205</v>
       </c>
       <c r="AB6" t="n">
-        <v>2646.182222446792</v>
+        <v>2939.212316816401</v>
       </c>
       <c r="AC6" t="n">
-        <v>2393.634305076545</v>
+        <v>2658.698018509838</v>
       </c>
       <c r="AD6" t="n">
-        <v>1933998.611642867</v>
+        <v>2148163.679669205</v>
       </c>
       <c r="AE6" t="n">
-        <v>2646182.222446792</v>
+        <v>2939212.316816401</v>
       </c>
       <c r="AF6" t="n">
         <v>3.836447204188201e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2393634.305076545</v>
+        <v>2658698.018509838</v>
       </c>
     </row>
     <row r="7">
@@ -26806,28 +26806,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1813.997992128393</v>
+        <v>2018.460896780552</v>
       </c>
       <c r="AB7" t="n">
-        <v>2481.992080773392</v>
+        <v>2761.747247185209</v>
       </c>
       <c r="AC7" t="n">
-        <v>2245.114240082142</v>
+        <v>2498.169966050459</v>
       </c>
       <c r="AD7" t="n">
-        <v>1813997.992128393</v>
+        <v>2018460.896780552</v>
       </c>
       <c r="AE7" t="n">
-        <v>2481992.080773392</v>
+        <v>2761747.247185209</v>
       </c>
       <c r="AF7" t="n">
         <v>3.944532746771109e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.51666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2245114.240082142</v>
+        <v>2498169.966050459</v>
       </c>
     </row>
     <row r="8">
@@ -26912,28 +26912,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1724.28714348352</v>
+        <v>1928.715882716897</v>
       </c>
       <c r="AB8" t="n">
-        <v>2359.245739894158</v>
+        <v>2638.954159672728</v>
       </c>
       <c r="AC8" t="n">
-        <v>2134.082637700852</v>
+        <v>2387.096078468988</v>
       </c>
       <c r="AD8" t="n">
-        <v>1724287.14348352</v>
+        <v>1928715.882716897</v>
       </c>
       <c r="AE8" t="n">
-        <v>2359245.739894158</v>
+        <v>2638954.159672728</v>
       </c>
       <c r="AF8" t="n">
         <v>4.014100532360834e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.8</v>
       </c>
       <c r="AH8" t="n">
-        <v>2134082.637700852</v>
+        <v>2387096.078468988</v>
       </c>
     </row>
     <row r="9">
@@ -27018,28 +27018,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1697.396327653477</v>
+        <v>1901.825066886854</v>
       </c>
       <c r="AB9" t="n">
-        <v>2322.452539336427</v>
+        <v>2602.160959114997</v>
       </c>
       <c r="AC9" t="n">
-        <v>2100.800928564769</v>
+        <v>2353.814369332905</v>
       </c>
       <c r="AD9" t="n">
-        <v>1697396.327653477</v>
+        <v>1901825.066886854</v>
       </c>
       <c r="AE9" t="n">
-        <v>2322452.539336427</v>
+        <v>2602160.959114997</v>
       </c>
       <c r="AF9" t="n">
         <v>4.036896755887411e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.56666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>2100800.928564769</v>
+        <v>2353814.369332905</v>
       </c>
     </row>
     <row r="10">
@@ -27124,28 +27124,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1698.784360737646</v>
+        <v>1903.213099971023</v>
       </c>
       <c r="AB10" t="n">
-        <v>2324.351707437884</v>
+        <v>2604.060127216454</v>
       </c>
       <c r="AC10" t="n">
-        <v>2102.518842728123</v>
+        <v>2355.532283496259</v>
       </c>
       <c r="AD10" t="n">
-        <v>1698784.360737646</v>
+        <v>1903213.099971023</v>
       </c>
       <c r="AE10" t="n">
-        <v>2324351.707437884</v>
+        <v>2604060.127216454</v>
       </c>
       <c r="AF10" t="n">
         <v>4.040434100917398e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.53333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>2102518.842728123</v>
+        <v>2355532.283496258</v>
       </c>
     </row>
     <row r="11">
@@ -27230,28 +27230,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1705.009282252983</v>
+        <v>1909.438021486361</v>
       </c>
       <c r="AB11" t="n">
-        <v>2332.868919679325</v>
+        <v>2612.577339457895</v>
       </c>
       <c r="AC11" t="n">
-        <v>2110.223184187222</v>
+        <v>2363.236624955358</v>
       </c>
       <c r="AD11" t="n">
-        <v>1705009.282252983</v>
+        <v>1909438.021486361</v>
       </c>
       <c r="AE11" t="n">
-        <v>2332868.919679325</v>
+        <v>2612577.339457895</v>
       </c>
       <c r="AF11" t="n">
         <v>4.040041062580732e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.53333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>2110223.184187222</v>
+        <v>2363236.624955358</v>
       </c>
     </row>
   </sheetData>
@@ -27527,28 +27527,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1351.097317183418</v>
+        <v>1612.822077912529</v>
       </c>
       <c r="AB2" t="n">
-        <v>1848.630955577192</v>
+        <v>2206.734319688295</v>
       </c>
       <c r="AC2" t="n">
-        <v>1672.200211746746</v>
+        <v>1996.126693388314</v>
       </c>
       <c r="AD2" t="n">
-        <v>1351097.317183418</v>
+        <v>1612822.077912529</v>
       </c>
       <c r="AE2" t="n">
-        <v>1848630.955577192</v>
+        <v>2206734.319688295</v>
       </c>
       <c r="AF2" t="n">
         <v>7.049633219391207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.3625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1672200.211746746</v>
+        <v>1996126.693388314</v>
       </c>
     </row>
   </sheetData>
@@ -27824,28 +27824,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2673.88617220823</v>
+        <v>2957.077922797181</v>
       </c>
       <c r="AB2" t="n">
-        <v>3658.529024347979</v>
+        <v>4046.00447104209</v>
       </c>
       <c r="AC2" t="n">
-        <v>3309.364149041804</v>
+        <v>3659.85948292862</v>
       </c>
       <c r="AD2" t="n">
-        <v>2673886.17220823</v>
+        <v>2957077.922797181</v>
       </c>
       <c r="AE2" t="n">
-        <v>3658529.024347979</v>
+        <v>4046004.47104209</v>
       </c>
       <c r="AF2" t="n">
         <v>3.646602782478508e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.39166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3309364.149041804</v>
+        <v>3659859.48292862</v>
       </c>
     </row>
     <row r="3">
@@ -27930,28 +27930,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1628.341411415464</v>
+        <v>1854.87350381147</v>
       </c>
       <c r="AB3" t="n">
-        <v>2227.968556451684</v>
+        <v>2537.919759158482</v>
       </c>
       <c r="AC3" t="n">
-        <v>2015.334364397442</v>
+        <v>2295.70425933715</v>
       </c>
       <c r="AD3" t="n">
-        <v>1628341.411415464</v>
+        <v>1854873.50381147</v>
       </c>
       <c r="AE3" t="n">
-        <v>2227968.556451683</v>
+        <v>2537919.759158482</v>
       </c>
       <c r="AF3" t="n">
         <v>4.814139468073194e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.99166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2015334.364397442</v>
+        <v>2295704.25933715</v>
       </c>
     </row>
     <row r="4">
@@ -28036,28 +28036,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1435.566508129854</v>
+        <v>1643.179230415907</v>
       </c>
       <c r="AB4" t="n">
-        <v>1964.205429147805</v>
+        <v>2248.270315006465</v>
       </c>
       <c r="AC4" t="n">
-        <v>1776.744419769572</v>
+        <v>2033.698551609453</v>
       </c>
       <c r="AD4" t="n">
-        <v>1435566.508129854</v>
+        <v>1643179.230415907</v>
       </c>
       <c r="AE4" t="n">
-        <v>1964205.429147805</v>
+        <v>2248270.315006465</v>
       </c>
       <c r="AF4" t="n">
         <v>5.110962018150917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.37916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1776744.419769572</v>
+        <v>2033698.551609453</v>
       </c>
     </row>
     <row r="5">
@@ -28142,28 +28142,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1436.627098054653</v>
+        <v>1644.239820340707</v>
       </c>
       <c r="AB5" t="n">
-        <v>1965.65657507284</v>
+        <v>2249.7214609315</v>
       </c>
       <c r="AC5" t="n">
-        <v>1778.057070364218</v>
+        <v>2035.011202204099</v>
       </c>
       <c r="AD5" t="n">
-        <v>1436627.098054653</v>
+        <v>1644239.820340707</v>
       </c>
       <c r="AE5" t="n">
-        <v>1965656.575072841</v>
+        <v>2249721.4609315</v>
       </c>
       <c r="AF5" t="n">
         <v>5.121878434178294e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.2875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1778057.070364218</v>
+        <v>2035011.202204099</v>
       </c>
     </row>
   </sheetData>
@@ -28439,28 +28439,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3795.906776464213</v>
+        <v>4139.782406376271</v>
       </c>
       <c r="AB2" t="n">
-        <v>5193.727115146625</v>
+        <v>5664.232922714423</v>
       </c>
       <c r="AC2" t="n">
-        <v>4698.045088718623</v>
+        <v>5123.646482371182</v>
       </c>
       <c r="AD2" t="n">
-        <v>3795906.776464213</v>
+        <v>4139782.406376271</v>
       </c>
       <c r="AE2" t="n">
-        <v>5193727.115146625</v>
+        <v>5664232.922714422</v>
       </c>
       <c r="AF2" t="n">
         <v>2.79947295682325e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>69</v>
+        <v>68.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>4698045.088718623</v>
+        <v>5123646.482371182</v>
       </c>
     </row>
     <row r="3">
@@ -28545,28 +28545,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2072.681292650642</v>
+        <v>2311.419340733434</v>
       </c>
       <c r="AB3" t="n">
-        <v>2835.933984849711</v>
+        <v>3162.585914616111</v>
       </c>
       <c r="AC3" t="n">
-        <v>2565.276425594001</v>
+        <v>2860.753153642239</v>
       </c>
       <c r="AD3" t="n">
-        <v>2072681.292650642</v>
+        <v>2311419.340733434</v>
       </c>
       <c r="AE3" t="n">
-        <v>2835933.984849711</v>
+        <v>3162585.914616111</v>
       </c>
       <c r="AF3" t="n">
         <v>4.002487211913136e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.18333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>2565276.425594001</v>
+        <v>2860753.153642239</v>
       </c>
     </row>
     <row r="4">
@@ -28651,28 +28651,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1707.719627552081</v>
+        <v>1917.928482432769</v>
       </c>
       <c r="AB4" t="n">
-        <v>2336.577333689545</v>
+        <v>2624.194362697471</v>
       </c>
       <c r="AC4" t="n">
-        <v>2113.577672369099</v>
+        <v>2373.744935801544</v>
       </c>
       <c r="AD4" t="n">
-        <v>1707719.627552081</v>
+        <v>1917928.482432769</v>
       </c>
       <c r="AE4" t="n">
-        <v>2336577.333689545</v>
+        <v>2624194.362697471</v>
       </c>
       <c r="AF4" t="n">
         <v>4.430647345025157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.52916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>2113577.672369099</v>
+        <v>2373744.935801544</v>
       </c>
     </row>
     <row r="5">
@@ -28757,28 +28757,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1538.836224032857</v>
+        <v>1748.976748075984</v>
       </c>
       <c r="AB5" t="n">
-        <v>2105.503610384618</v>
+        <v>2393.027146126048</v>
       </c>
       <c r="AC5" t="n">
-        <v>1904.557300902386</v>
+        <v>2164.639993934471</v>
       </c>
       <c r="AD5" t="n">
-        <v>1538836.224032857</v>
+        <v>1748976.748075983</v>
       </c>
       <c r="AE5" t="n">
-        <v>2105503.610384618</v>
+        <v>2393027.146126048</v>
       </c>
       <c r="AF5" t="n">
         <v>4.629221071625219e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.6625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1904557.300902386</v>
+        <v>2164639.993934471</v>
       </c>
     </row>
     <row r="6">
@@ -28863,28 +28863,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1518.699100557685</v>
+        <v>1719.251522262766</v>
       </c>
       <c r="AB6" t="n">
-        <v>2077.951109658699</v>
+        <v>2352.355780783993</v>
       </c>
       <c r="AC6" t="n">
-        <v>1879.634372175572</v>
+        <v>2127.850246618043</v>
       </c>
       <c r="AD6" t="n">
-        <v>1518699.100557685</v>
+        <v>1719251.522262766</v>
       </c>
       <c r="AE6" t="n">
-        <v>2077951.109658699</v>
+        <v>2352355.780783993</v>
       </c>
       <c r="AF6" t="n">
         <v>4.659307999897955e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.39166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1879634.372175572</v>
+        <v>2127850.246618043</v>
       </c>
     </row>
     <row r="7">
@@ -28969,28 +28969,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1523.495278155464</v>
+        <v>1724.047699860545</v>
       </c>
       <c r="AB7" t="n">
-        <v>2084.513451440404</v>
+        <v>2358.918122565698</v>
       </c>
       <c r="AC7" t="n">
-        <v>1885.570413267934</v>
+        <v>2133.786287710405</v>
       </c>
       <c r="AD7" t="n">
-        <v>1523495.278155464</v>
+        <v>1724047.699860545</v>
       </c>
       <c r="AE7" t="n">
-        <v>2084513.451440403</v>
+        <v>2358918.122565697</v>
       </c>
       <c r="AF7" t="n">
         <v>4.66254813063502e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.36666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1885570.413267934</v>
+        <v>2133786.287710405</v>
       </c>
     </row>
   </sheetData>
